--- a/data/trans_orig/iP30B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50984445-1EF7-4D4F-84D6-A7E4D3569399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF23887-C216-46BF-BEFD-52D04E8B2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0CB5B407-C65C-402B-8224-76FC6FA8737E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3EF9792C-EEB1-46C3-BB6B-E8900B3F4460}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>6,25%</t>
   </si>
   <si>
@@ -98,9 +203,6 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>93,75%</t>
   </si>
   <si>
@@ -128,64 +230,61 @@
     <t>95,81%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -237,105 +336,6 @@
   </si>
   <si>
     <t>96,77%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
   </si>
   <si>
     <t>8,34%</t>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1536C40E-79DA-4469-B527-D38F875E5F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732F15D-85F9-40B7-B5FB-A64397F252C9}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15184</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -914,85 +914,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>10718</v>
+        <v>1225</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1225</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>35</v>
-      </c>
-      <c r="N4" s="7">
-        <v>25903</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11397</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>304</v>
-      </c>
-      <c r="D5" s="7">
-        <v>227729</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14774</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>254</v>
-      </c>
-      <c r="I5" s="7">
-        <v>177199</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>41</v>
+      </c>
+      <c r="N5" s="7">
+        <v>26170</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>558</v>
-      </c>
-      <c r="N5" s="7">
-        <v>404927</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1001,54 +1001,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1060,13 +1060,13 @@
         <v>11516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1075,13 +1075,13 @@
         <v>2707</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1090,19 +1090,19 @@
         <v>14223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>139</v>
@@ -1111,13 +1111,13 @@
         <v>100932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -1126,13 +1126,13 @@
         <v>98928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>297</v>
@@ -1141,13 +1141,13 @@
         <v>199860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,13 +1162,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1177,13 +1177,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1192,117 +1192,117 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>6214</v>
+        <v>15184</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10718</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>35</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25903</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10177</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16391</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>165242</v>
+        <v>227729</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>254</v>
+      </c>
+      <c r="I11" s="7">
+        <v>177199</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>558</v>
+      </c>
+      <c r="N11" s="7">
+        <v>404927</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>221</v>
-      </c>
-      <c r="I11" s="7">
-        <v>158313</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="7">
-        <v>445</v>
-      </c>
-      <c r="N11" s="7">
-        <v>323556</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1311,129 +1311,129 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>26209</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24990</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1225</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>69</v>
+      </c>
+      <c r="N13" s="7">
+        <v>51199</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1225</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="D14" s="7">
-        <v>11397</v>
+        <v>144910</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>14774</v>
+        <v>141578</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1442,22 +1442,22 @@
         <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="N14" s="7">
-        <v>26170</v>
+        <v>286488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,144 +1466,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>26209</v>
+        <v>6214</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10177</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="7">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24990</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>51199</v>
+        <v>16391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="D17" s="7">
-        <v>144910</v>
+        <v>165242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>221</v>
+      </c>
+      <c r="I17" s="7">
+        <v>158313</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="7">
-        <v>189</v>
-      </c>
-      <c r="I17" s="7">
-        <v>141578</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="M17" s="7">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="N17" s="7">
-        <v>286488</v>
+        <v>323556</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -1621,49 +1621,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>869</v>
@@ -1782,13 +1782,13 @@
         <v>709334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1797,13 +1797,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1812,13 +1812,13 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF23887-C216-46BF-BEFD-52D04E8B2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E79FAF3-9036-4E88-818E-00AC87796011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3EF9792C-EEB1-46C3-BB6B-E8900B3F4460}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C951F75E-F8D5-4850-B297-AEC5A7E1573E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Menores según si desayunan lácteos en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,304 +116,283 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>10,01%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -496,39 +499,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -580,7 +583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -691,13 +694,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -706,6 +702,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -770,19 +773,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732F15D-85F9-40B7-B5FB-A64397F252C9}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269FC92A-D87E-48DD-97C1-17AFC60F6550}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -899,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11397</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -914,34 +937,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>1225</v>
+        <v>14774</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>1225</v>
+        <v>26170</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -950,10 +973,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>11397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -965,34 +988,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>14774</v>
+        <v>1225</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>26170</v>
+        <v>1225</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1007,13 +1030,13 @@
         <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -1022,13 +1045,13 @@
         <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -1037,13 +1060,13 @@
         <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="D7" s="7">
-        <v>11516</v>
+        <v>100932</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1069,10 +1092,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="I7" s="7">
-        <v>2707</v>
+        <v>98928</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1084,10 +1107,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="N7" s="7">
-        <v>14223</v>
+        <v>199860</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1105,10 +1128,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>100932</v>
+        <v>11516</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1120,10 +1143,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>98928</v>
+        <v>2707</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1135,10 +1158,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>199860</v>
+        <v>14223</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1162,13 +1185,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1177,13 +1200,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1192,13 +1215,13 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="D10" s="7">
-        <v>15184</v>
+        <v>227729</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1224,10 +1247,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="I10" s="7">
-        <v>10718</v>
+        <v>177199</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1239,10 +1262,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>558</v>
       </c>
       <c r="N10" s="7">
-        <v>25903</v>
+        <v>404927</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1260,10 +1283,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>227729</v>
+        <v>15184</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1275,10 +1298,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>177199</v>
+        <v>10718</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1290,10 +1313,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>558</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>404927</v>
+        <v>25903</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1317,13 +1340,13 @@
         <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -1332,13 +1355,13 @@
         <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>593</v>
@@ -1347,13 +1370,13 @@
         <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7">
-        <v>26209</v>
+        <v>144910</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1379,10 +1402,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="I13" s="7">
-        <v>24990</v>
+        <v>141578</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -1394,10 +1417,10 @@
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>374</v>
       </c>
       <c r="N13" s="7">
-        <v>51199</v>
+        <v>286488</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>71</v>
@@ -1415,10 +1438,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>144910</v>
+        <v>26209</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -1430,10 +1453,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>141578</v>
+        <v>24990</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1445,10 +1468,10 @@
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>374</v>
+        <v>69</v>
       </c>
       <c r="N14" s="7">
-        <v>286488</v>
+        <v>51199</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1472,13 +1495,13 @@
         <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>223</v>
@@ -1487,13 +1510,13 @@
         <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>443</v>
@@ -1502,13 +1525,13 @@
         <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="D16" s="7">
-        <v>6214</v>
+        <v>165242</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -1534,34 +1557,34 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="I16" s="7">
-        <v>10177</v>
+        <v>158313</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>445</v>
       </c>
       <c r="N16" s="7">
-        <v>16391</v>
+        <v>323556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,49 +1593,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>165242</v>
+        <v>6214</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>158313</v>
+        <v>10177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>445</v>
+        <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>323556</v>
+        <v>16391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1650,13 @@
         <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -1642,13 +1665,13 @@
         <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>467</v>
@@ -1657,13 +1680,13 @@
         <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,49 +1697,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>71</v>
+        <v>869</v>
       </c>
       <c r="D19" s="7">
-        <v>59123</v>
+        <v>650210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>69</v>
+        <v>846</v>
       </c>
       <c r="I19" s="7">
-        <v>49818</v>
+        <v>590791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>140</v>
+        <v>1715</v>
       </c>
       <c r="N19" s="7">
-        <v>108941</v>
+        <v>1241001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,46 +1748,46 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>869</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>650211</v>
+        <v>59123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>846</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7">
-        <v>590791</v>
+        <v>49818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>1715</v>
+        <v>140</v>
       </c>
       <c r="N20" s="7">
-        <v>1241001</v>
+        <v>108941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -1779,16 +1802,16 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1797,13 +1820,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1812,13 +1835,18 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
